--- a/.idea/out.xlsx
+++ b/.idea/out.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="mySheetName" sheetId="1" r:id="rId1"/>
+    <sheet name="myFirstSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="mySecondSheet" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -429,4 +430,68 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>baz</v>
+      </c>
+      <c r="C4" t="str">
+        <v>qux</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A4"/>
+  </mergeCells>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+  </ignoredErrors>
+</worksheet>
 </file>